--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.910666127459315</v>
+        <v>6.992417114397731</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>0.1715429114845346</v>
+        <v>1.052572528399653</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>0.2478029645461621</v>
+        <v>2.396905458966625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.8004663283405655</v>
+        <v>0.475547144596522</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>4.590949402546851</v>
+        <v>1.495774185788745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>5.253783907501819</v>
+        <v>4.312104569761943</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>6.528307842404013</v>
+        <v>1.976172106438545</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>3.522405026196918</v>
+        <v>4.639864760432189</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>2.728164648391185</v>
+        <v>4.074582884048139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.656063945467268</v>
+        <v>1.418316910291906</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>5.01424274443687</v>
+        <v>3.247860853607465</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>4.06235252733802</v>
+        <v>3.520945360626571</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>4.963935273957154</v>
+        <v>2.547371915279606</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.05427116350534</v>
+        <v>3.285568146716344</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.973747512448343</v>
+        <v>3.38738696315446</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.305809238174006</v>
+        <v>2.441258738366514</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.420751168230217</v>
+        <v>3.091878630346012</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.509111342826809</v>
+        <v>2.480871685520603</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.434773703516147</v>
+        <v>2.296583397191387</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.297011904810243</v>
+        <v>3.071095202329288</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.699746550608474</v>
+        <v>2.781797072072023</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.783907785663198</v>
+        <v>2.994116795316071</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.798452007460738</v>
+        <v>2.939737488252936</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.841406700970061</v>
+        <v>2.671604274379558</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.136136986781323</v>
+        <v>2.997455747043043</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.134077088567254</v>
+        <v>2.08524086077817</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.829971696551858</v>
+        <v>2.197771900625956</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>5.04459987483179</v>
+        <v>4.939003803830477</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>4.366242242642326</v>
+        <v>3.440178795466697</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.824943501366195</v>
+        <v>2.93530792557688</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.591136243562021</v>
+        <v>3.215749572764803</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.580512425878888</v>
+        <v>1.635353376270698</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.455689670679972</v>
+        <v>2.328770194687713</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.057287156976417</v>
+        <v>1.984020855913604</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>3.10450669425526</v>
+        <v>1.88544721086894</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>6.056254825277896</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>6.992417114397731</v>
+        <v>4.566338461218011</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.052572528399653</v>
+        <v>8.604123301398037</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>2.396905458966625</v>
+        <v>8.260999835306727</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.475547144596522</v>
+        <v>5.436647924209592</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.495774185788745</v>
+        <v>4.862860110364875</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>4.312104569761943</v>
+        <v>6.334380382529425</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.976172106438545</v>
+        <v>5.829578861489648</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.639864760432189</v>
+        <v>3.88993859232436</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>4.074582884048139</v>
+        <v>3.4300351921007</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.418316910291906</v>
+        <v>2.513767348245044</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>3.247860853607465</v>
+        <v>2.479992751939486</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>3.520945360626571</v>
+        <v>2.723916849952834</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.547371915279606</v>
+        <v>2.551173534479334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>3.285568146716344</v>
+        <v>1.326505206336948</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.38738696315446</v>
+        <v>1.211929054838756</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.441258738366514</v>
+        <v>2.321003614014883</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>3.091878630346012</v>
+        <v>2.610201636760778</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.480871685520603</v>
+        <v>2.468891199411116</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.296583397191387</v>
+        <v>2.593292206016984</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.071095202329288</v>
+        <v>3.133596157287766</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.781797072072023</v>
+        <v>3.419422858788335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.994116795316071</v>
+        <v>0.08486825492834971</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.939737488252936</v>
+        <v>0.9311475558545057</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.671604274379558</v>
+        <v>2.405224065057476</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.997455747043043</v>
+        <v>2.152035263856344</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.08524086077817</v>
+        <v>-0.678826357714013</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.197771900625956</v>
+        <v>0.02414656897629097</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.939003803830477</v>
+        <v>0.7010162698181555</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.440178795466697</v>
+        <v>-0.6730402944081559</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.93530792557688</v>
+        <v>2.158153176293576</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.215749572764803</v>
+        <v>1.298013848993262</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.635353376270698</v>
+        <v>-0.1645072558042915</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>2.328770194687713</v>
+        <v>0.1619933518385297</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.984020855913604</v>
+        <v>3.131832690451031</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.88544721086894</v>
+        <v>2.199676451050503</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.678826357714013</v>
+        <v>-0.9722867993663398</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.02414656897629097</v>
+        <v>-0.1151106897824938</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.7010162698181555</v>
+        <v>0.1776648540293913</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.6730402944081559</v>
+        <v>-1.134429800434078</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.158153176293576</v>
+        <v>2.217384308289683</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.298013848993262</v>
+        <v>1.307306144161835</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1645072558042915</v>
+        <v>-0.1883299148263573</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.1619933518385297</v>
+        <v>0.4536295996834916</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>3.131832690451031</v>
+        <v>3.083905204716286</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.199676451050503</v>
+        <v>2.197852508472353</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>6.056254825277896</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>4.566338461218011</v>
+        <v>4.566338461218034</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>8.604123301398037</v>
+        <v>8.604123301398015</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>8.260999835306727</v>
+        <v>8.260999835306748</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +460,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>4.862860110364875</v>
+        <v>4.862860110364853</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>6.334380382529425</v>
+        <v>6.334380382529448</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>3.88993859232436</v>
+        <v>3.889938592324382</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>3.4300351921007</v>
+        <v>3.430035192100678</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.513767348245044</v>
+        <v>2.513767348245066</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.551173534479334</v>
+        <v>2.551173534479356</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.321003614014883</v>
+        <v>2.321003614014905</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -616,7 +613,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.9311475558545057</v>
+        <v>0.9311475558545279</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.152035263856344</v>
+        <v>2.152035263856322</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +647,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1151106897824938</v>
+        <v>-0.1151106897825049</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -695,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1883299148263573</v>
+        <v>-0.1883299148263795</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>3.083905204716286</v>
+        <v>3.083905204716264</v>
       </c>
       <c r="D19">
         <v>2026</v>
